--- a/Main/Results Table.xlsx
+++ b/Main/Results Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristophSydora\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristophSydora\Desktop\652Project\levels\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B53A86DE-1E7B-4B39-A09D-88B8D18C3FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24996759-2450-434C-AA8C-8A4C1DDED45E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="-4110" windowWidth="14400" windowHeight="11385" xr2:uid="{A13E0AE7-5EC0-405C-BB19-06F66AE59F2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A13E0AE7-5EC0-405C-BB19-06F66AE59F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,95 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Sketch</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-CNNimg_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-CNNimg_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-CNNimg_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-CNNimg_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-CNNimg_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-CNNimg_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelimg_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelimg_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelimg_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelimg_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelimg_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelimg_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelhistogram_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelhistogram_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelhistogram_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelhistogram_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelhistogram_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelhistogram_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelavrg_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelavrg_Rep-AutoEncoder</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelavrg_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelavrg_Rep-MarkovChain</t>
+  </si>
+  <si>
+    <t>Closeness_Gen-Pixelavrg_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Conisitency_Gen-Pixelavrg_Rep-Multi1</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,12 +466,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F0D2BC-AEE2-4D89-BF26-EAE6953F07D3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:AE10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>35.282047130000002</v>
+      </c>
+      <c r="C2">
+        <v>58.800726019999999</v>
+      </c>
+      <c r="D2">
+        <v>103.5683858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>97.142857140000004</v>
+      </c>
+      <c r="C3">
+        <v>99.642857140000004</v>
+      </c>
+      <c r="D3">
+        <v>90.571428569999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>34.960633420000001</v>
+      </c>
+      <c r="C4">
+        <v>58.800726019999999</v>
+      </c>
+      <c r="D4">
+        <v>103.72010400000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>97.142857140000004</v>
+      </c>
+      <c r="C5">
+        <v>99.642857140000004</v>
+      </c>
+      <c r="D5">
+        <v>90.892857140000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>35.356360520000003</v>
+      </c>
+      <c r="C6">
+        <v>58.800726019999999</v>
+      </c>
+      <c r="D6">
+        <v>103.7284835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>97.357142859999996</v>
+      </c>
+      <c r="C7">
+        <v>99.642857140000004</v>
+      </c>
+      <c r="D7">
+        <v>91.785714290000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>23.906693990000001</v>
+      </c>
+      <c r="C8">
+        <v>57.969296129999996</v>
+      </c>
+      <c r="D8">
+        <v>113.3977792</v>
+      </c>
+      <c r="H8">
+        <v>35.282047130000002</v>
+      </c>
+      <c r="I8">
+        <v>97.142857140000004</v>
+      </c>
+      <c r="J8">
+        <v>34.960633420000001</v>
+      </c>
+      <c r="K8">
+        <v>97.142857140000004</v>
+      </c>
+      <c r="L8">
+        <v>35.356360520000003</v>
+      </c>
+      <c r="M8">
+        <v>97.357142859999996</v>
+      </c>
+      <c r="N8">
+        <v>23.906693990000001</v>
+      </c>
+      <c r="O8">
+        <v>96.035714290000001</v>
+      </c>
+      <c r="P8">
+        <v>14.051829939999999</v>
+      </c>
+      <c r="Q8">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="R8">
+        <v>27.903994860000001</v>
+      </c>
+      <c r="S8">
+        <v>98.857142859999996</v>
+      </c>
+      <c r="T8">
+        <v>23.906693990000001</v>
+      </c>
+      <c r="U8">
+        <v>96.035714290000001</v>
+      </c>
+      <c r="V8">
+        <v>14.051829939999999</v>
+      </c>
+      <c r="W8">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="X8">
+        <v>27.75023856</v>
+      </c>
+      <c r="Y8">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="Z8">
+        <v>23.906693990000001</v>
+      </c>
+      <c r="AA8">
+        <v>96.035714290000001</v>
+      </c>
+      <c r="AB8">
+        <v>14.051829939999999</v>
+      </c>
+      <c r="AC8">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="AD8">
+        <v>27.7731827</v>
+      </c>
+      <c r="AE8">
+        <v>98.892857140000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>96.035714290000001</v>
+      </c>
+      <c r="C9">
+        <v>85.857142859999996</v>
+      </c>
+      <c r="D9">
+        <v>31.64285714</v>
+      </c>
+      <c r="H9">
+        <v>58.800726019999999</v>
+      </c>
+      <c r="I9">
+        <v>99.642857140000004</v>
+      </c>
+      <c r="J9">
+        <v>58.800726019999999</v>
+      </c>
+      <c r="K9">
+        <v>99.642857140000004</v>
+      </c>
+      <c r="L9">
+        <v>58.800726019999999</v>
+      </c>
+      <c r="M9">
+        <v>99.642857140000004</v>
+      </c>
+      <c r="N9">
+        <v>57.969296129999996</v>
+      </c>
+      <c r="O9">
+        <v>85.857142859999996</v>
+      </c>
+      <c r="P9">
+        <v>53.925504770000003</v>
+      </c>
+      <c r="Q9">
+        <v>91.142857140000004</v>
+      </c>
+      <c r="R9">
+        <v>59.391800269999997</v>
+      </c>
+      <c r="S9">
+        <v>96.571428569999995</v>
+      </c>
+      <c r="T9">
+        <v>49.507472819999997</v>
+      </c>
+      <c r="U9">
+        <v>83.321428569999995</v>
+      </c>
+      <c r="V9">
+        <v>49.636133030000003</v>
+      </c>
+      <c r="W9">
+        <v>99.392857140000004</v>
+      </c>
+      <c r="X9">
+        <v>50.176222009999996</v>
+      </c>
+      <c r="Y9">
+        <v>99.428571430000005</v>
+      </c>
+      <c r="Z9">
+        <v>34.901545319999997</v>
+      </c>
+      <c r="AA9">
+        <v>94.928571430000005</v>
+      </c>
+      <c r="AB9">
+        <v>30.86093262</v>
+      </c>
+      <c r="AC9">
+        <v>97.107142859999996</v>
+      </c>
+      <c r="AD9">
+        <v>35.049558599999997</v>
+      </c>
+      <c r="AE9">
+        <v>98.035714290000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>14.051829939999999</v>
+      </c>
+      <c r="C10">
+        <v>53.925504770000003</v>
+      </c>
+      <c r="D10">
+        <v>118.7968982</v>
+      </c>
+      <c r="H10">
+        <v>103.5683858</v>
+      </c>
+      <c r="I10">
+        <v>90.571428569999995</v>
+      </c>
+      <c r="J10">
+        <v>103.72010400000001</v>
+      </c>
+      <c r="K10">
+        <v>90.892857140000004</v>
+      </c>
+      <c r="L10">
+        <v>103.7284835</v>
+      </c>
+      <c r="M10">
+        <v>91.785714290000001</v>
+      </c>
+      <c r="N10">
+        <v>113.3977792</v>
+      </c>
+      <c r="O10">
+        <v>31.64285714</v>
+      </c>
+      <c r="P10">
+        <v>118.7968982</v>
+      </c>
+      <c r="Q10">
+        <v>22.571428569999998</v>
+      </c>
+      <c r="R10">
+        <v>112.3697549</v>
+      </c>
+      <c r="S10">
+        <v>55.964285709999999</v>
+      </c>
+      <c r="T10">
+        <v>120.3706298</v>
+      </c>
+      <c r="U10">
+        <v>40.321428570000002</v>
+      </c>
+      <c r="V10">
+        <v>118.78139299999999</v>
+      </c>
+      <c r="W10">
+        <v>41.178571429999998</v>
+      </c>
+      <c r="X10">
+        <v>116.9536019</v>
+      </c>
+      <c r="Y10">
+        <v>58.571428570000002</v>
+      </c>
+      <c r="Z10">
+        <v>105.0243273</v>
+      </c>
+      <c r="AA10">
+        <v>43.357142860000003</v>
+      </c>
+      <c r="AB10">
+        <v>103.105538</v>
+      </c>
+      <c r="AC10">
+        <v>31.14285714</v>
+      </c>
+      <c r="AD10">
+        <v>105.3193199</v>
+      </c>
+      <c r="AE10">
+        <v>54.464285709999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="C11">
+        <v>91.142857140000004</v>
+      </c>
+      <c r="D11">
+        <v>22.571428569999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>27.903994860000001</v>
+      </c>
+      <c r="C12">
+        <v>59.391800269999997</v>
+      </c>
+      <c r="D12">
+        <v>112.3697549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>98.857142859999996</v>
+      </c>
+      <c r="C13">
+        <v>96.571428569999995</v>
+      </c>
+      <c r="D13">
+        <v>55.964285709999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>23.906693990000001</v>
+      </c>
+      <c r="C14">
+        <v>49.507472819999997</v>
+      </c>
+      <c r="D14">
+        <v>120.3706298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>96.035714290000001</v>
+      </c>
+      <c r="C15">
+        <v>83.321428569999995</v>
+      </c>
+      <c r="D15">
+        <v>40.321428570000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>14.051829939999999</v>
+      </c>
+      <c r="C16">
+        <v>49.636133030000003</v>
+      </c>
+      <c r="D16">
+        <v>118.78139299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="C17">
+        <v>99.392857140000004</v>
+      </c>
+      <c r="D17">
+        <v>41.178571429999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>27.75023856</v>
+      </c>
+      <c r="C18">
+        <v>50.176222009999996</v>
+      </c>
+      <c r="D18">
+        <v>116.9536019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="C19">
+        <v>99.428571430000005</v>
+      </c>
+      <c r="D19">
+        <v>58.571428570000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>23.906693990000001</v>
+      </c>
+      <c r="C20">
+        <v>34.901545319999997</v>
+      </c>
+      <c r="D20">
+        <v>105.0243273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>96.035714290000001</v>
+      </c>
+      <c r="C21">
+        <v>94.928571430000005</v>
+      </c>
+      <c r="D21">
+        <v>43.357142860000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>14.051829939999999</v>
+      </c>
+      <c r="C22">
+        <v>30.86093262</v>
+      </c>
+      <c r="D22">
+        <v>103.105538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>98.821428569999995</v>
+      </c>
+      <c r="C23">
+        <v>97.107142859999996</v>
+      </c>
+      <c r="D23">
+        <v>31.14285714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>27.7731827</v>
+      </c>
+      <c r="C24">
+        <v>35.049558599999997</v>
+      </c>
+      <c r="D24">
+        <v>105.3193199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>98.892857140000004</v>
+      </c>
+      <c r="C25">
+        <v>98.035714290000001</v>
+      </c>
+      <c r="D25">
+        <v>54.464285709999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>